--- a/DATA_goal/Junction_Flooding_143.xlsx
+++ b/DATA_goal/Junction_Flooding_143.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41575.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>40.79</v>
+        <v>4.08</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41575.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.4</v>
+        <v>2.84</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.91</v>
+        <v>3.69</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>155.92</v>
+        <v>15.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.32</v>
+        <v>2.93</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.17</v>
+        <v>3.22</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41575.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.56</v>
+        <v>2.16</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.45</v>
+        <v>4.55</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.17</v>
+        <v>3.92</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>63.66</v>
+        <v>6.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.48</v>
+        <v>2.55</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.7</v>
+        <v>2.37</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>246.52</v>
+        <v>24.65</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.25</v>
+        <v>4.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.43</v>
+        <v>3.14</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.75</v>
+        <v>1.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.96</v>
+        <v>3.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.1</v>
+        <v>5.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.05</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41575.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.71</v>
+        <v>3.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>98.95999999999999</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>3.68</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41575.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
+      <c r="T6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.74</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41575.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>21.83</v>
+        <v>2.18</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>46.78</v>
+        <v>4.68</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>39.44</v>
+        <v>3.94</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>61.67</v>
+        <v>6.17</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.15</v>
+        <v>2.61</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.18</v>
+        <v>2.02</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.22</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>251.21</v>
+        <v>25.12</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>47.19</v>
+        <v>4.72</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>32.02</v>
+        <v>3.2</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>30.51</v>
+        <v>3.05</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>55.35</v>
+        <v>5.53</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>19.5</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41575.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>30.62</v>
+        <v>3.06</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>95.61</v>
+        <v>9.56</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>27.76</v>
+        <v>2.78</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41575.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41575.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>39.4</v>
+        <v>3.94</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>33.09</v>
+        <v>3.31</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>50.55</v>
+        <v>5.05</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>22.02</v>
+        <v>2.2</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>210.03</v>
+        <v>21</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>39.64</v>
+        <v>3.96</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>26.89</v>
+        <v>2.69</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.25</v>
+        <v>1.43</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>25.1</v>
+        <v>2.51</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>45.23</v>
+        <v>4.52</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_143.xlsx
+++ b/DATA_goal/Junction_Flooding_143.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,13 +461,13 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41575.34027777778</v>
+        <v>44824.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>2.31</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>1.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>4.86</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1</v>
+        <v>4.02</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.81</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.85</v>
+        <v>6.03</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.35</v>
+        <v>2.79</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.39</v>
+        <v>1.83</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.47</v>
+        <v>1.92</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>2.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.27</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.46</v>
+        <v>5.32</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.31</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41575.34722222222</v>
+        <v>44824.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.59</v>
+        <v>1.85</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.69</v>
+        <v>3.53</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P3" s="4" t="n">
         <v>1.16</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.59</v>
+        <v>11.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.93</v>
+        <v>2.33</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.93</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41575.35416666666</v>
+        <v>44824.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.16</v>
+        <v>0.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.68</v>
+        <v>0.57</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.55</v>
+        <v>1.74</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.92</v>
+        <v>1.44</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.64</v>
+        <v>0.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.37</v>
+        <v>2.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.55</v>
+        <v>0.99</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.77</v>
+        <v>0.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.89</v>
+        <v>0.7</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2</v>
+        <v>0.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.65</v>
+        <v>0.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.37</v>
+        <v>0.9</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.65</v>
+        <v>9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.62</v>
+        <v>1.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.14</v>
+        <v>1.18</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.98</v>
+        <v>0.73</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.71</v>
+        <v>2.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.32</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.9</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41575.36111111111</v>
+        <v>44824.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.91</v>
+        <v>1.54</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.73</v>
+        <v>1.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.87</v>
+        <v>3.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.67</v>
+        <v>2.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.17</v>
+        <v>4.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.86</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8</v>
+        <v>1.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.85</v>
+        <v>1.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.68</v>
+        <v>1.2</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.99</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.9</v>
+        <v>17.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.94</v>
+        <v>3.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.32</v>
+        <v>2.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.71</v>
+        <v>1.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.61</v>
+        <v>1.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.85</v>
+        <v>4.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41575.36805555555</v>
+        <v>44824.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.33</v>
+        <v>10.09</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.28</v>
+        <v>7.31</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.63</v>
+        <v>21.7</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.62</v>
+        <v>17.95</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.22</v>
+        <v>7.94</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.4</v>
+        <v>32.77</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.37</v>
+        <v>12.22</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.18</v>
+        <v>5.37</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.28</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.3</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.31</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.08</v>
+        <v>2.54</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.24</v>
+        <v>7.9</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.35</v>
+        <v>11.2</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.19</v>
+        <v>6.74</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.47</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>3.03</v>
+        <v>112.86</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>22.16</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.24</v>
+        <v>7.29</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.48</v>
+        <v>14.79</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.26</v>
+        <v>7.92</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.61</v>
+        <v>15.6</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.19</v>
+        <v>6.44</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.19</v>
+        <v>5.77</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.22</v>
+        <v>6.77</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.3</v>
+        <v>9.18</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.25</v>
+        <v>29.74</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.13</v>
+        <v>4.06</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41575.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41575.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41575.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41575.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41575.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>86.48</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.05</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_143.xlsx
+++ b/DATA_goal/Junction_Flooding_143.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44824.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.86</v>
+        <v>48.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.02</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.03</v>
+        <v>60.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.31</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.15</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.4</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.73</v>
+        <v>267.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.03</v>
+        <v>50.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.32</v>
+        <v>53.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44824.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.53</v>
+        <v>35.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.62</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.86</v>
+        <v>118.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.2</v>
+        <v>31.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44824.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="T4" s="4" t="n">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.46</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44824.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.31</v>
+        <v>33.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.52</v>
+        <v>45.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.58</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.36</v>
+        <v>33.59</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.2</v>
+        <v>22.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.07</v>
+        <v>40.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_143.xlsx
+++ b/DATA_goal/Junction_Flooding_143.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.92</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.56</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.15</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.26</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.92</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.88</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.31</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.4</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.06</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.34</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.26</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.39</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.39</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.71</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.2</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.44</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.25</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.83</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44824.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.57</v>
+        <v>10.569</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.26</v>
+        <v>7.258</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.621</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.36</v>
+        <v>22.357</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.52</v>
+        <v>18.518</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.32</v>
+        <v>8.318</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.32</v>
+        <v>35.317</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.45</v>
+        <v>5.446</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>8.289999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.98</v>
+        <v>8.977</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.305999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>2.66</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.62</v>
+        <v>11.625</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.15</v>
+        <v>7.155</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.579</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.883</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>118.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.27</v>
+        <v>23.267</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.32</v>
+        <v>15.323</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.218</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.54</v>
+        <v>16.544</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.18</v>
+        <v>6.175</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.21</v>
+        <v>7.213</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.99</v>
+        <v>31.995</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.19</v>
+        <v>4.193</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44824.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.69</v>
+        <v>5.685</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.047</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.353</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.37</v>
+        <v>14.374</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.68</v>
+        <v>26.681</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.24</v>
+        <v>4.235</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.4</v>
+        <v>6.403</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.03</v>
+        <v>7.027</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>7.25</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.05</v>
+        <v>2.054</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.98</v>
+        <v>8.981</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.56</v>
+        <v>5.563</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.016</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.95999999999999</v>
+        <v>89.958</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.93</v>
+        <v>17.928</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.82</v>
+        <v>11.815</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.41</v>
+        <v>6.409</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.46</v>
+        <v>12.463</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.762</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.57</v>
+        <v>5.567</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>7.3</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.02</v>
+        <v>24.018</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.23</v>
+        <v>3.235</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.38</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44824.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_143.xlsx
+++ b/DATA_goal/Junction_Flooding_143.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44824.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.37</v>
+        <v>15.374</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.21</v>
+        <v>11.214</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.13</v>
+        <v>33.133</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.41</v>
+        <v>27.415</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.1</v>
+        <v>12.098</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>45.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.198</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.3</v>
+        <v>12.299</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.38</v>
+        <v>13.377</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.98</v>
+        <v>13.979</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.864</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.06</v>
+        <v>17.063</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.19</v>
+        <v>10.195</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.677</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.79</v>
+        <v>175.787</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.59</v>
+        <v>33.585</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>22.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.02</v>
+        <v>12.019</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.483</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.03</v>
+        <v>22.026</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.75</v>
+        <v>8.752000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.27</v>
+        <v>10.275</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.99</v>
+        <v>13.991</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.69</v>
+        <v>40.693</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.23</v>
+        <v>6.225</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.883</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44824.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.86</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_143.xlsx
+++ b/DATA_goal/Junction_Flooding_143.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44824.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.374</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.214</v>
+        <v>11.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.072</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.133</v>
+        <v>33.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.415</v>
+        <v>27.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.098</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>45.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.615</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.198</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.299</v>
+        <v>12.3</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.377</v>
+        <v>13.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.979</v>
+        <v>13.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.031</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.063</v>
+        <v>17.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.195</v>
+        <v>10.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.825</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.787</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.585</v>
+        <v>33.59</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.105</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>22.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.019</v>
+        <v>12.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.483</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.026</v>
+        <v>22.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.752000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.275</v>
+        <v>10.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.991</v>
+        <v>13.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.693</v>
+        <v>40.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.225</v>
+        <v>6.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.883</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44824.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>
